--- a/biology/Botanique/Houstonia_longifolia/Houstonia_longifolia.xlsx
+++ b/biology/Botanique/Houstonia_longifolia/Houstonia_longifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Houstonia longifolia est une espèce de plantes vivaces de la famille des Rubiaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Houstonia longifolia a été décrite en 1788 par le botaniste allemand Joseph Gärtner[1] (1732-1791).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Houstonia longifolia a été décrite en 1788 par le botaniste allemand Joseph Gärtner (1732-1791).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (2 février 2022)[3] (liste brute contenant possiblement des synonymes) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (2 février 2022) (liste brute contenant possiblement des synonymes) :
 variété Houstonia longifolia var. ciliolata (Torr.) Alph. Wood
 variété Houstonia longifolia var. compacta Terrell
 variété Houstonia longifolia var. glabra Terrell
@@ -579,7 +595,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(la) Joseph Gärtner, 1788 : De Fructibus et Seminibus Plantarum, vol. 1, p. 226 (lire en ligne).</t>
         </is>
